--- a/data/trans_orig/P1430-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Edad-trans_orig.xlsx
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5932</v>
+        <v>6826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002859482601561229</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008633822283401186</v>
+        <v>0.009934968605643468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6952</v>
+        <v>6884</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001514413899260971</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005358609379851303</v>
+        <v>0.005305935768482793</v>
       </c>
     </row>
     <row r="8">
@@ -974,7 +974,7 @@
         <v>685122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>681155</v>
+        <v>680261</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>687087</v>
@@ -983,7 +983,7 @@
         <v>0.9971405173984388</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9913661777165989</v>
+        <v>0.9900650313943566</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1008,7 +1008,7 @@
         <v>1295377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1290390</v>
+        <v>1290458</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>1297342</v>
@@ -1017,7 +1017,7 @@
         <v>0.998485586100739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9946413906201489</v>
+        <v>0.9946940642315172</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1112,19 +1112,19 @@
         <v>2949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7927</v>
+        <v>8095</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004324992622045809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0</v>
+        <v>0.001396131310271702</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01162568655848399</v>
+        <v>0.01187161989865054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1133,19 +1133,19 @@
         <v>3959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9024</v>
+        <v>9060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005579205110601393</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001385525002117679</v>
+        <v>0.001398923989726917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01271798369577362</v>
+        <v>0.01276862097252843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1154,19 +1154,19 @@
         <v>6908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13957</v>
+        <v>13677</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004964588197188998</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002119254360497646</v>
+        <v>0.002121804033713065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01003090260915454</v>
+        <v>0.009829464541400719</v>
       </c>
     </row>
     <row r="11">
@@ -1183,19 +1183,19 @@
         <v>678914</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>673936</v>
+        <v>673768</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>681863</v>
+        <v>680911</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9956750073779542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9883743134415161</v>
+        <v>0.9881283801013493</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1</v>
+        <v>0.9986038686897283</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>662</v>
@@ -1204,19 +1204,19 @@
         <v>705615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>700550</v>
+        <v>700514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708591</v>
+        <v>708581</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9944207948893986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9872820163042263</v>
+        <v>0.9872313790274716</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9986144749978823</v>
+        <v>0.9986010760102731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1310</v>
@@ -1225,19 +1225,19 @@
         <v>1384529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1377480</v>
+        <v>1377760</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1388488</v>
+        <v>1388485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.995035411802811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9899690973908455</v>
+        <v>0.9901705354585993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9978807456395024</v>
+        <v>0.9978781959662869</v>
       </c>
     </row>
     <row r="12">
@@ -1329,19 +1329,19 @@
         <v>9432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5081</v>
+        <v>4148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16992</v>
+        <v>17480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01534693650087433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008267665525398628</v>
+        <v>0.006748532084147782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02764596665406078</v>
+        <v>0.02844109719148763</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1350,19 +1350,19 @@
         <v>5467</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2145</v>
+        <v>2139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12031</v>
+        <v>11116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008899369319123093</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003492232472134196</v>
+        <v>0.0034814508790087</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01958652434281258</v>
+        <v>0.01809716852643946</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1371,19 +1371,19 @@
         <v>14899</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8587</v>
+        <v>8491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24799</v>
+        <v>24578</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01212407850207538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006987340753500544</v>
+        <v>0.006909870263908039</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02018003838358866</v>
+        <v>0.02000055579537044</v>
       </c>
     </row>
     <row r="14">
@@ -1400,19 +1400,19 @@
         <v>605185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>597625</v>
+        <v>597137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>609536</v>
+        <v>610469</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9846530634991256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9723540333459392</v>
+        <v>0.9715589028085125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9917323344746014</v>
+        <v>0.9932514679158523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>533</v>
@@ -1421,19 +1421,19 @@
         <v>608797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>602233</v>
+        <v>603148</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>612119</v>
+        <v>612125</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9911006306808769</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9804134756571875</v>
+        <v>0.9819028314735607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9965077675278659</v>
+        <v>0.9965185491209914</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1072</v>
@@ -1442,19 +1442,19 @@
         <v>1213981</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1204081</v>
+        <v>1204302</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1220293</v>
+        <v>1220389</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9878759214979246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9798199616164114</v>
+        <v>0.9799994442046295</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9930126592464995</v>
+        <v>0.9930901297360919</v>
       </c>
     </row>
     <row r="15">
@@ -1546,19 +1546,19 @@
         <v>5479</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14364</v>
+        <v>15439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01275855587041446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002720717083030167</v>
+        <v>0.002695115609497898</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03344894870674701</v>
+        <v>0.03595281614717699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1567,19 +1567,19 @@
         <v>6246</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2161</v>
+        <v>2108</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12375</v>
+        <v>12674</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01394858503096518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004826357381864278</v>
+        <v>0.004708424724113527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02763532776230472</v>
+        <v>0.02830370737124763</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1588,19 +1588,19 @@
         <v>11725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5445</v>
+        <v>5487</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20975</v>
+        <v>21466</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01336603118293583</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006207491527060154</v>
+        <v>0.006254510584671399</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02391010694840627</v>
+        <v>0.0244706336832923</v>
       </c>
     </row>
     <row r="17">
@@ -1617,19 +1617,19 @@
         <v>423950</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>415065</v>
+        <v>413990</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428261</v>
+        <v>428272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9872414441295856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.966551051293253</v>
+        <v>0.9640471838528225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9972792829169699</v>
+        <v>0.997304884390502</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>400</v>
@@ -1638,19 +1638,19 @@
         <v>441554</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>435425</v>
+        <v>435126</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>445639</v>
+        <v>445692</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9860514149690348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9723646722376952</v>
+        <v>0.9716962926287525</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9951736426181357</v>
+        <v>0.9952915752758865</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>789</v>
@@ -1659,19 +1659,19 @@
         <v>865504</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>856254</v>
+        <v>855763</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>871784</v>
+        <v>871742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9866339688170642</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9760898930515939</v>
+        <v>0.9755293663167077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9937925084729399</v>
+        <v>0.9937454894153286</v>
       </c>
     </row>
     <row r="18">
@@ -1763,19 +1763,19 @@
         <v>5108</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12534</v>
+        <v>13330</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01648719586365588</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00332501654786113</v>
+        <v>0.003403569739322807</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04046009715110255</v>
+        <v>0.04303016519353531</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5323</v>
+        <v>5542</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002973768776519664</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01503731350989563</v>
+        <v>0.01565443288681171</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1805,19 +1805,19 @@
         <v>6160</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15374</v>
+        <v>14321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009280465609861047</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003105217769266117</v>
+        <v>0.003109867691240046</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02316172623518922</v>
+        <v>0.02157535768187052</v>
       </c>
     </row>
     <row r="20">
@@ -1834,19 +1834,19 @@
         <v>304678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>297252</v>
+        <v>296456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>308756</v>
+        <v>308732</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9835128041363441</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9595399028488975</v>
+        <v>0.9569698348064658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966749834521389</v>
+        <v>0.9965964302606772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>343</v>
@@ -1855,7 +1855,7 @@
         <v>352943</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>348673</v>
+        <v>348454</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>353996</v>
@@ -1864,7 +1864,7 @@
         <v>0.9970262312234803</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9849626864901044</v>
+        <v>0.9843455671131869</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1876,19 +1876,19 @@
         <v>657622</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>648408</v>
+        <v>649461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>661721</v>
+        <v>661718</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9907195343901389</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9768382737648107</v>
+        <v>0.9784246423181296</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9968947822307339</v>
+        <v>0.99689013230876</v>
       </c>
     </row>
     <row r="21">
@@ -1993,19 +1993,19 @@
         <v>5448</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2154</v>
+        <v>2136</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11017</v>
+        <v>12949</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0140046624479489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.005536897369459008</v>
+        <v>0.005492173812635308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02832369842107144</v>
+        <v>0.03329088790945327</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -2014,19 +2014,19 @@
         <v>5448</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>11979</v>
+        <v>13215</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008527340342717748</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00336588775969429</v>
+        <v>0.003363473645393227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01875092630991951</v>
+        <v>0.02068646277940401</v>
       </c>
     </row>
     <row r="23">
@@ -2056,19 +2056,19 @@
         <v>383531</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377962</v>
+        <v>376030</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>386825</v>
+        <v>386843</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.985995337552051</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9716763015789286</v>
+        <v>0.9667091120905468</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9944631026305409</v>
+        <v>0.9945078261873647</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>567</v>
@@ -2077,19 +2077,19 @@
         <v>633382</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>626851</v>
+        <v>625615</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>636680</v>
+        <v>636681</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9914726596572823</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9812490736900807</v>
+        <v>0.9793135372205961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9966341122403057</v>
+        <v>0.9966365263546069</v>
       </c>
     </row>
     <row r="24">
@@ -2181,19 +2181,19 @@
         <v>24933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15712</v>
+        <v>16394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>36430</v>
+        <v>38084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007275826301560233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004584969957905805</v>
+        <v>0.004784030902531706</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01063091285350596</v>
+        <v>0.01111374417842103</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>21</v>
@@ -2202,19 +2202,19 @@
         <v>22172</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14680</v>
+        <v>13799</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33069</v>
+        <v>33341</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006236625792868268</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.004129268869008402</v>
+        <v>0.00388154043684873</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009301983138066917</v>
+        <v>0.009378400799628761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>43</v>
@@ -2223,19 +2223,19 @@
         <v>47104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34229</v>
+        <v>34313</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>62276</v>
+        <v>62942</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006746676339608119</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004902608063035363</v>
+        <v>0.004914518737385093</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.008919607183965223</v>
+        <v>0.009015010366426162</v>
       </c>
     </row>
     <row r="26">
@@ -2252,19 +2252,19 @@
         <v>3401846</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3390349</v>
+        <v>3388695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3411067</v>
+        <v>3410385</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9927241736984398</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.989369087146494</v>
+        <v>0.9888862558215784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9954150300420939</v>
+        <v>0.995215969097468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3275</v>
@@ -2273,19 +2273,19 @@
         <v>3532926</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3522029</v>
+        <v>3521757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3540418</v>
+        <v>3541299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9937633742071317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9906980168619332</v>
+        <v>0.990621599200371</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9958707311309916</v>
+        <v>0.9961184595631511</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6462</v>
@@ -2294,19 +2294,19 @@
         <v>6934773</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6919601</v>
+        <v>6918935</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6947648</v>
+        <v>6947564</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9932533236603919</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9910803928160348</v>
+        <v>0.990984989633574</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9950973919369648</v>
+        <v>0.995085481262615</v>
       </c>
     </row>
     <row r="27">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4438</v>
+        <v>6026</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002528126273988685</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01121385352217889</v>
+        <v>0.01522551628534085</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6314</v>
+        <v>5767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001227301923219751</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007744762117695147</v>
+        <v>0.007073677275415949</v>
       </c>
     </row>
     <row r="5">
@@ -2717,7 +2717,7 @@
         <v>394754</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>391317</v>
+        <v>389729</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>395755</v>
@@ -2726,7 +2726,7 @@
         <v>0.9974718737260113</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9887861464778204</v>
+        <v>0.9847744837146591</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2738,7 +2738,7 @@
         <v>814217</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>808904</v>
+        <v>809451</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>815218</v>
@@ -2747,7 +2747,7 @@
         <v>0.9987726980767803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9922552378823059</v>
+        <v>0.9929263227245834</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4670</v>
+        <v>4387</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001557873403606615</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007908265100140217</v>
+        <v>0.007429019448420337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6360</v>
+        <v>6371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003205948585312636</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01128564227432905</v>
+        <v>0.01130548341738385</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -2884,19 +2884,19 @@
         <v>2727</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7325</v>
+        <v>7945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002362665614105503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0007679576615001562</v>
+        <v>0.0007659902081620139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006347390122430408</v>
+        <v>0.006884407233347321</v>
       </c>
     </row>
     <row r="8">
@@ -2913,7 +2913,7 @@
         <v>589576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>585826</v>
+        <v>586109</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>590496</v>
@@ -2922,7 +2922,7 @@
         <v>0.9984421265963934</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9920917348998598</v>
+        <v>0.992570980551579</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2934,7 +2934,7 @@
         <v>561737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>557184</v>
+        <v>557173</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>563544</v>
@@ -2943,7 +2943,7 @@
         <v>0.9967940514146874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9887143577256708</v>
+        <v>0.9886945165826159</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2955,19 +2955,19 @@
         <v>1151313</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1146715</v>
+        <v>1146095</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1153154</v>
+        <v>1153156</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9976373343858945</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9936526098775696</v>
+        <v>0.9931155927666532</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9992320423384998</v>
+        <v>0.999234009791838</v>
       </c>
     </row>
     <row r="9">
@@ -3059,19 +3059,19 @@
         <v>5923</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2027</v>
+        <v>1938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13278</v>
+        <v>12813</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008852506197209573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003029320930465736</v>
+        <v>0.00289615422138414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01984515572846799</v>
+        <v>0.01914954033285872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3093,19 +3093,19 @@
         <v>5923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2199</v>
+        <v>2004</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14322</v>
+        <v>14008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004451904107769089</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001652584388057906</v>
+        <v>0.001506188600780357</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01076424968687015</v>
+        <v>0.01052873279036503</v>
       </c>
     </row>
     <row r="11">
@@ -3122,19 +3122,19 @@
         <v>663174</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655819</v>
+        <v>656284</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>667070</v>
+        <v>667159</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9911474938027904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9801548442715321</v>
+        <v>0.9808504596671412</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969706790695342</v>
+        <v>0.9971038457786159</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -3156,19 +3156,19 @@
         <v>1324560</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316161</v>
+        <v>1316475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1328284</v>
+        <v>1328479</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9955480958922309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9892357503131299</v>
+        <v>0.9894712672096352</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9983474156119422</v>
+        <v>0.9984938113992196</v>
       </c>
     </row>
     <row r="12">
@@ -3260,19 +3260,19 @@
         <v>6031</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2094</v>
+        <v>2011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13758</v>
+        <v>13787</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009335372007969358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003241434976650132</v>
+        <v>0.003113110546290012</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02129519647757067</v>
+        <v>0.02134013822013165</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7271</v>
+        <v>7341</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003214533910739923</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01120177000345409</v>
+        <v>0.01130999164370411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3302,19 +3302,19 @@
         <v>8118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3883</v>
+        <v>3175</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16458</v>
+        <v>15932</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006267796191922439</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002998192931646697</v>
+        <v>0.002451314672269844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01270739387774151</v>
+        <v>0.01230113499182221</v>
       </c>
     </row>
     <row r="14">
@@ -3331,19 +3331,19 @@
         <v>640017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632290</v>
+        <v>632261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643954</v>
+        <v>644037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9906646279920306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9787048035224293</v>
+        <v>0.9786598617798682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9967585650233498</v>
+        <v>0.99688688945371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -3352,7 +3352,7 @@
         <v>646991</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>641806</v>
+        <v>641736</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>649077</v>
@@ -3361,7 +3361,7 @@
         <v>0.9967854660892601</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9887982299965458</v>
+        <v>0.9886900083562957</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3373,19 +3373,19 @@
         <v>1287007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1278667</v>
+        <v>1279193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1291242</v>
+        <v>1291950</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9937322038080776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9872926061222586</v>
+        <v>0.9876988650081782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9970018070683533</v>
+        <v>0.9975486853277302</v>
       </c>
     </row>
     <row r="15">
@@ -3477,19 +3477,19 @@
         <v>7204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3132</v>
+        <v>2592</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15925</v>
+        <v>14619</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01507451188630821</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006552795817936741</v>
+        <v>0.005422481714177607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03332126794508063</v>
+        <v>0.03058978854733773</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4916</v>
+        <v>4909</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001974922025834256</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.00989445268820574</v>
+        <v>0.009879731913523114</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -3519,19 +3519,19 @@
         <v>8186</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3426</v>
+        <v>3289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16137</v>
+        <v>16342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008397513032533065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003514410565410307</v>
+        <v>0.003374015606292477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01655470015121702</v>
+        <v>0.01676536968029567</v>
       </c>
     </row>
     <row r="17">
@@ -3548,19 +3548,19 @@
         <v>470714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>461993</v>
+        <v>463299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>474786</v>
+        <v>475326</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9849254881136917</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9666787320549192</v>
+        <v>0.9694102114526623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9934472041820632</v>
+        <v>0.9945775182858224</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>432</v>
@@ -3569,7 +3569,7 @@
         <v>495868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>491933</v>
+        <v>491940</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>496849</v>
@@ -3578,7 +3578,7 @@
         <v>0.9980250779741657</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9901055473117942</v>
+        <v>0.9901202680864769</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3590,19 +3590,19 @@
         <v>966581</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>958630</v>
+        <v>958425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>971341</v>
+        <v>971478</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9916024869674669</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9834452998487825</v>
+        <v>0.9832346303197042</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9964855894345896</v>
+        <v>0.9966259843937075</v>
       </c>
     </row>
     <row r="18">
@@ -3694,19 +3694,19 @@
         <v>3023</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8182</v>
+        <v>7397</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009043395627402549</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002752262822631196</v>
+        <v>0.002749445963685829</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02447228413345416</v>
+        <v>0.02212633549694807</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -3715,19 +3715,19 @@
         <v>3021</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9114</v>
+        <v>8138</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.00799646221325684</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002584869440105469</v>
+        <v>0.002567061534521652</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0241274502804273</v>
+        <v>0.02154160252386999</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -3736,19 +3736,19 @@
         <v>6044</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2036</v>
+        <v>2096</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12989</v>
+        <v>12252</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008488001574101072</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002859181587564376</v>
+        <v>0.002942871682336096</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01824106958931241</v>
+        <v>0.0172051568066895</v>
       </c>
     </row>
     <row r="20">
@@ -3765,19 +3765,19 @@
         <v>331307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>326148</v>
+        <v>326933</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>333410</v>
+        <v>333411</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9909566043725975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9755277158665461</v>
+        <v>0.977873664503052</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9972477371773688</v>
+        <v>0.9972505540363141</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>351</v>
@@ -3786,19 +3786,19 @@
         <v>374741</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>368648</v>
+        <v>369624</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376786</v>
+        <v>376792</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9920035377867431</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9758725497195726</v>
+        <v>0.9784583974761301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9974151305598945</v>
+        <v>0.9974329384654783</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>673</v>
@@ -3807,19 +3807,19 @@
         <v>706048</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>699103</v>
+        <v>699840</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>710056</v>
+        <v>709996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9915119984258989</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9817589304106882</v>
+        <v>0.9827948431933103</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9971408184124356</v>
+        <v>0.9970571283176639</v>
       </c>
     </row>
     <row r="21">
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5618</v>
+        <v>5911</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006465409840923936</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02186008380985884</v>
+        <v>0.02299863356492199</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -3932,19 +3932,19 @@
         <v>4824</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>0</v>
+        <v>1343</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13747</v>
+        <v>13315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0120550669184019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0</v>
+        <v>0.003355220144560897</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03435234281951791</v>
+        <v>0.033273885648377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -3953,19 +3953,19 @@
         <v>6486</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2221</v>
+        <v>2352</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14805</v>
+        <v>15412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009869122258266432</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.003380208417407909</v>
+        <v>0.003579371741224626</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02252921643786917</v>
+        <v>0.02345289145591407</v>
       </c>
     </row>
     <row r="23">
@@ -3982,7 +3982,7 @@
         <v>255336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251380</v>
+        <v>251087</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>256998</v>
@@ -3991,7 +3991,7 @@
         <v>0.9935345901590761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9781399161901414</v>
+        <v>0.9770013664350781</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4003,19 +4003,19 @@
         <v>395345</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>386422</v>
+        <v>386854</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>400169</v>
+        <v>398826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9879449330815981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9656476571804823</v>
+        <v>0.9667261143516234</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>1</v>
+        <v>0.9966447798554391</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>598</v>
@@ -4024,19 +4024,19 @@
         <v>650681</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>642362</v>
+        <v>641755</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>654946</v>
+        <v>654815</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9901308777417336</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9774707835621309</v>
+        <v>0.9765471085440861</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9966197915825921</v>
+        <v>0.9964206282587755</v>
       </c>
     </row>
     <row r="24">
@@ -4128,19 +4128,19 @@
         <v>24764</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15754</v>
+        <v>15810</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37958</v>
+        <v>36661</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007295551730474461</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004641225848004129</v>
+        <v>0.004657654128296754</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01118258408238347</v>
+        <v>0.01080066889031176</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>12</v>
@@ -4149,19 +4149,19 @@
         <v>13720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7410</v>
+        <v>7329</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25349</v>
+        <v>23940</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003870670120778463</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.002090583030439348</v>
+        <v>0.002067567253808565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007151419020944945</v>
+        <v>0.006754145319101038</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>34</v>
@@ -4170,19 +4170,19 @@
         <v>38483</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>27043</v>
+        <v>26719</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>54739</v>
+        <v>52543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00554604530948016</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00389728334914467</v>
+        <v>0.00385063184972046</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.007888767466988515</v>
+        <v>0.007572283519822823</v>
       </c>
     </row>
     <row r="26">
@@ -4199,19 +4199,19 @@
         <v>3369586</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3356392</v>
+        <v>3357689</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3378596</v>
+        <v>3378540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9927044482695255</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9888174159176163</v>
+        <v>0.9891993311096888</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9953587741519958</v>
+        <v>0.9953423458717033</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3326</v>
@@ -4220,19 +4220,19 @@
         <v>3530822</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3519193</v>
+        <v>3520602</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3537132</v>
+        <v>3537213</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9961293298792215</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9928485809790549</v>
+        <v>0.9932458546808984</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9979094169695606</v>
+        <v>0.9979324327461914</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6535</v>
@@ -4241,19 +4241,19 @@
         <v>6900409</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6884153</v>
+        <v>6886349</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6911849</v>
+        <v>6912173</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9944539546905199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9921112325330117</v>
+        <v>0.9924277164801776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.996102716650856</v>
+        <v>0.9961493681502795</v>
       </c>
     </row>
     <row r="27">
